--- a/datatable.xlsx
+++ b/datatable.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">User device</t>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">User’s O.S</t>
+    <t xml:space="preserve">O.S</t>
   </si>
   <si>
-    <t xml:space="preserve">Timeframe user visited</t>
+    <t xml:space="preserve">Device</t>
   </si>
 </sst>
 </file>
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,13 +110,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -142,24 +147,24 @@
   <dimension ref="A1:D432"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.96938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="26.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="26.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="26.0510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+    <row r="1" s="2" customFormat="true" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
